--- a/Inverse_Transformed_Pre_Data1.xlsx
+++ b/Inverse_Transformed_Pre_Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22690\PycharmProjects\数模2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6378A2-4EA9-4FF2-A2AA-C02A2A73CDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC41F5-213E-4C28-9BB0-200885409C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="2400" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3830" yWindow="2210" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
